--- a/data/output/results/winner_metrics_pred.xlsx
+++ b/data/output/results/winner_metrics_pred.xlsx
@@ -492,17 +492,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>313.1047361348986</v>
+        <v>746.3135403903035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6027666638859647</v>
+        <v>1.726692555583038</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5010207568736749</v>
+        <v>-4.432034070441646</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[431.98104753129013, 528.0462894185491, 818.0553835137255, 1562.2888361367786]</t>
+          <t>[899.2311441015672, 923.3878513876025, 1231.7744770048932, 2061.1863563393986]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">

--- a/data/output/results/winner_metrics_pred.xlsx
+++ b/data/output/results/winner_metrics_pred.xlsx
@@ -488,21 +488,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Demand_sarima_Demand_scallg</t>
+          <t>Demand_randomforest_Demand_scallg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>746.3135403903035</v>
+        <v>186.7567334714045</v>
       </c>
       <c r="C2" t="n">
-        <v>1.726692555583038</v>
+        <v>0.4932016687630996</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.432034070441646</v>
+        <v>0.6598485071456115</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[899.2311441015672, 923.3878513876025, 1231.7744770048932, 2061.1863563393986]</t>
+          <t>[468.7005020890286, 482.7588393258897, 708.1664568972785, 1257.766019788193]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>sarima</t>
+          <t>randomforest</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
